--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16396.26826084257</v>
+        <v>3262857.383907672</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16396.26826084257</v>
+        <v>3262857.383907672</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50679.58852762566</v>
+        <v>3126414.526778585</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50679.58852762566</v>
+        <v>3126414.526778585</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1191169227.636668</v>
+        <v>48312675.88744272</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13171.81952438986</v>
+        <v>1364751.290298991</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23716.30921811653</v>
+        <v>2282468.263560625</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34254.13645369567</v>
+        <v>3200185.236822261</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45398.51587543507</v>
+        <v>4116668.955670395</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56543.06436969721</v>
+        <v>5033186.319950559</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67687.61286395935</v>
+        <v>5949703.684230718</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78832.16135822146</v>
+        <v>6866221.048510876</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89976.70985248363</v>
+        <v>7782738.412791034</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101161.6354874856</v>
+        <v>8682147.082680358</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112374.9011408738</v>
+        <v>9587195.416228561</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123588.1667942621</v>
+        <v>10492243.74977676</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134801.4324476504</v>
+        <v>11397292.08332497</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146014.6981010386</v>
+        <v>12302340.41687318</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157230.8492477243</v>
+        <v>13207382.26496329</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168444.1149011126</v>
+        <v>14112430.59851151</v>
       </c>
     </row>
   </sheetData>
